--- a/AGReal/AG.xlsx
+++ b/AGReal/AG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wando\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wando\Documents\GitHub\2018-01-atividades-wandolm\AGReal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{686AFBBC-1E32-41D4-916B-32A752D47AFA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993D489-24ED-4D04-AFB5-EAD257E2D27D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{392FB9C5-3298-47C4-92F5-533A51836AF1}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I61"/>
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,29 +463,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>5.2674646440209404E-6</v>
+        <v>1.8150795199289799E-5</v>
       </c>
       <c r="D2">
-        <v>0.126223899511614</v>
+        <v>0.28644125648372598</v>
       </c>
       <c r="E2">
         <v>40</v>
       </c>
       <c r="F2" s="1">
         <f>AVERAGE(C2:C61)</f>
-        <v>5.1665442608357992E-5</v>
+        <v>1.1458072172028226E-3</v>
       </c>
       <c r="G2">
         <f>MEDIAN(D2:D61)</f>
-        <v>2.1938310575705999E-2</v>
+        <v>1.0137354089515</v>
       </c>
       <c r="H2">
         <f>_xlfn.STDEV.S(C2:D2)</f>
-        <v>8.9250050632502159E-2</v>
+        <v>0.20253172032086841</v>
       </c>
       <c r="I2">
         <f>_xlfn.VAR.S(C2:D2)</f>
-        <v>7.9655715379041998E-3</v>
+        <v>4.1019097736130467E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2.3798132815500101E-6</v>
+        <v>4.19830101577645E-4</v>
       </c>
       <c r="D3">
-        <v>3.0949923611728901E-2</v>
+        <v>1.7002443371412701</v>
       </c>
       <c r="E3">
         <v>57</v>
@@ -507,11 +507,11 @@
       <c r="F3" s="1"/>
       <c r="H3">
         <f t="shared" ref="H3:H61" si="0">_xlfn.STDEV.S(C3:D3)</f>
-        <v>2.1883218080949805E-2</v>
+        <v>1.2019574357548468</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I61" si="1">_xlfn.VAR.S(C3:D3)</f>
-        <v>4.7887523357840849E-4</v>
+        <v>1.4447016773663666</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -521,22 +521,22 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>2.11420274354168E-6</v>
+      <c r="C4">
+        <v>6.10920782719404E-3</v>
       </c>
       <c r="D4">
-        <v>2.5813874105097001E-2</v>
+        <v>14.774502283614501</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.8251670461313148E-2</v>
+        <v>10.442830891117659</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>3.3312347462837095E-4</v>
+        <v>109.05271702048124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -547,21 +547,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>5.4335074082700797E-5</v>
+        <v>1.87326557806954E-4</v>
       </c>
       <c r="D5">
-        <v>3.4796664635223302E-2</v>
+        <v>2.6069940487508299</v>
       </c>
       <c r="E5">
         <v>11</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>2.4566536826900371E-2</v>
+        <v>1.8432907105053629</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>6.0351473166745208E-4</v>
+        <v>3.3977206434353655</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,21 +572,21 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>3.1750474636282802E-4</v>
+        <v>3.6141041471182602E-4</v>
       </c>
       <c r="D6">
-        <v>0.22251378427222299</v>
+        <v>0.75865351304457795</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.15711649600715735</v>
+        <v>0.53619348788978372</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>2.4685593317567093E-2</v>
+        <v>0.28750345645541164</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -597,21 +597,21 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>3.7469249036803303E-8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.0795903800681095E-4</v>
+        <v>2.5482017917965999E-7</v>
+      </c>
+      <c r="D7">
+        <v>5.5867655062610302</v>
       </c>
       <c r="E7">
         <v>24</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>4.2986546369818611E-4</v>
+        <v>3.9504395941911929</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>1.8478431688045655E-7</v>
+        <v>15.605972987353478</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -622,21 +622,21 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>7.7818030945309106E-5</v>
+        <v>3.1812054430702098E-6</v>
       </c>
       <c r="D8">
-        <v>4.9163905428599698E-2</v>
+        <v>2.3376178972389399</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>3.4709105260796944E-2</v>
+        <v>1.6529432175087513</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>1.2047219880050822E-3</v>
+        <v>2.7322212803081829</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -647,21 +647,21 @@
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>8.5465421761909902E-7</v>
+        <v>3.38500331054092E-6</v>
       </c>
       <c r="D9">
-        <v>1.0110050959951799E-2</v>
+        <v>7.7782222354357999E-2</v>
       </c>
       <c r="E9">
         <v>16</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>7.1482812601306343E-3</v>
+        <v>5.4997943323731188E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>5.1097924973934803E-5</v>
+        <v>3.0247737698403483E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -672,21 +672,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>4.6828233735141101E-7</v>
+        <v>7.2474663056709606E-5</v>
       </c>
       <c r="D10">
-        <v>7.7040371384100503E-3</v>
+        <v>0.61374289861998899</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>5.4472457774664999E-3</v>
+        <v>0.43393051819357031</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>2.9672486560126617E-5</v>
+        <v>0.18829569461974047</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -697,21 +697,21 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>1.01919218650436E-4</v>
+        <v>2.9951615374557099E-5</v>
       </c>
       <c r="D11">
-        <v>6.14561515419609E-2</v>
+        <v>1.22269587377911</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>4.3383993730307692E-2</v>
+        <v>0.86455536468768079</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>1.882170911991377E-3</v>
+        <v>0.74745597861024882</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,21 +722,21 @@
         <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>1.20565842962605E-4</v>
+        <v>1.9940996594414099E-5</v>
       </c>
       <c r="D12">
-        <v>8.0868522879882193E-2</v>
+        <v>0.28631944164101197</v>
       </c>
       <c r="E12">
         <v>8</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>5.7097427987765841E-2</v>
+        <v>0.20244431835599</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>3.2601162828181057E-3</v>
+        <v>4.0983702034621428E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -747,21 +747,21 @@
         <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>1.3783410395262699E-6</v>
+        <v>8.3381191302578305E-5</v>
       </c>
       <c r="D13">
-        <v>3.1213807675157999E-2</v>
+        <v>5.3413323280740297</v>
       </c>
       <c r="E13">
         <v>16</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>2.2070520439461089E-2</v>
+        <v>3.7768333503462821</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>4.8710787246866971E-4</v>
+        <v>14.264470156287921</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -772,21 +772,21 @@
         <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>2.9148986868676698E-7</v>
+        <v>8.6330260273825803E-8</v>
       </c>
       <c r="D14">
-        <v>3.1298199471620999E-3</v>
+        <v>6.0715504027825697E-2</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>2.2129107940684471E-3</v>
+        <v>4.2932283576522227E-2</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>4.8969741825046449E-6</v>
+        <v>1.8431809730949202E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -797,21 +797,21 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>9.2735194812121304E-7</v>
+        <v>2.2665378310193699E-5</v>
       </c>
       <c r="D15">
-        <v>1.67338299598895E-2</v>
+        <v>0.138492882362697</v>
       </c>
       <c r="E15">
         <v>8</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.1831948903009414E-2</v>
+        <v>9.7913229422032538E-2</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>1.3999501484342569E-4</v>
+        <v>9.5870004958515786E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -822,21 +822,21 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>1.23046447697561E-7</v>
+        <v>1.00836018646077E-6</v>
       </c>
       <c r="D16">
-        <v>1.41633340205089E-2</v>
+        <v>0.48307922378398799</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.0014902523134403E-2</v>
+        <v>0.34158788196966594</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>1.0029827254788382E-4</v>
+        <v>0.11668228110852241</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,21 +847,21 @@
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>4.0737645576882599E-6</v>
+        <v>3.1085629530025397E-5</v>
       </c>
       <c r="D17">
-        <v>1.33241494951334E-2</v>
+        <v>9.8688896434623502E-2</v>
       </c>
       <c r="E17">
         <v>13</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>9.4187158750084418E-3</v>
+        <v>6.9761607037301041E-2</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>8.8712208734136028E-5</v>
+        <v>4.8666818164268101E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,21 +872,21 @@
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>1.07344476418802E-7</v>
+        <v>1.2144187166995801E-6</v>
       </c>
       <c r="D18">
-        <v>2.7783656152905602E-2</v>
+        <v>0.78519723090516802</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.9645935767867696E-2</v>
+        <v>0.5552174278182338</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>3.8596279219518326E-4</v>
+        <v>0.3082663921530957</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,21 +897,21 @@
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>2.5892678991112899E-5</v>
+        <v>5.8634297226944898E-4</v>
       </c>
       <c r="D19">
-        <v>4.1624863342803999E-2</v>
+        <v>21.606468519631299</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>2.941491424676235E-2</v>
+        <v>15.277665800633164</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>8.6523718014438263E-4</v>
+        <v>233.40707231583616</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -922,21 +922,21 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>7.7550740797960299E-6</v>
+        <v>4.69586082090245E-4</v>
       </c>
       <c r="D20">
-        <v>4.3924141574507303E-3</v>
+        <v>0.32159861197260398</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>3.1004221710427787E-3</v>
+        <v>0.22707251184301261</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>9.6126176386936182E-6</v>
+        <v>5.1561925634695104E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -947,21 +947,21 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>1.7753552583599201E-7</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4.4511865451113397E-4</v>
+        <v>3.5690097774931898E-6</v>
+      </c>
+      <c r="D21">
+        <v>3.9650674737458702E-2</v>
       </c>
       <c r="E21">
         <v>16</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>3.1462088246323469E-4</v>
+        <v>2.803473731446339E-2</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>9.8986299681944541E-8</v>
+        <v>7.8594649629096605E-4</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,21 +972,21 @@
         <v>11</v>
       </c>
       <c r="C22" s="1">
-        <v>8.0706498692961708E-6</v>
+        <v>4.0510412759431299E-5</v>
       </c>
       <c r="D22">
-        <v>2.36702637008647E-2</v>
+        <v>4.4498948255068102E-2</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.673169716410405E-2</v>
+        <v>3.143686287925708E-2</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>2.7994968999128751E-4</v>
+        <v>9.8827634768921179E-4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -996,22 +996,22 @@
       <c r="B23">
         <v>11</v>
       </c>
-      <c r="C23" s="1">
-        <v>3.9432370613212602E-7</v>
+      <c r="C23">
+        <v>1.3264680594602301E-3</v>
       </c>
       <c r="D23">
-        <v>1.1358527950392199E-2</v>
+        <v>24.945376874161401</v>
       </c>
       <c r="E23">
         <v>9</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>8.0314133090526717E-3</v>
+        <v>17.638107192413738</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>6.45035997408284E-5</v>
+        <v>311.10282533107721</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,22 +1021,22 @@
       <c r="B24">
         <v>12</v>
       </c>
-      <c r="C24" s="1">
-        <v>1.3320182006282201E-6</v>
+      <c r="C24">
+        <v>1.7645183768308899E-3</v>
       </c>
       <c r="D24">
-        <v>3.8237242817785899E-2</v>
+        <v>4.6128114599061902</v>
       </c>
       <c r="E24">
         <v>8</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2.7036871811230694E-2</v>
+        <v>3.2605025607248996</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>7.3099243733692088E-4</v>
+        <v>10.630876948493629</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1047,21 +1047,21 @@
         <v>12</v>
       </c>
       <c r="C25" s="1">
-        <v>1.38079030875815E-7</v>
+        <v>5.4508154846644099E-4</v>
       </c>
       <c r="D25">
-        <v>6.6104510320883396E-3</v>
+        <v>1.4720902371262801</v>
       </c>
       <c r="E25">
         <v>8</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>4.6741971148722044E-3</v>
+        <v>1.0405395583312851</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>2.1848118668679641E-5</v>
+        <v>1.0827225724522658</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1072,21 +1072,21 @@
         <v>13</v>
       </c>
       <c r="C26" s="1">
-        <v>8.6314457803382505E-9</v>
-      </c>
-      <c r="D26" s="1">
-        <v>8.0766106918872505E-4</v>
+        <v>5.1395498303463601E-5</v>
+      </c>
+      <c r="D26">
+        <v>0.32727807548894799</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>5.7109651556988214E-4</v>
+        <v>0.23138420440654509</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>3.2615123009606058E-7</v>
+        <v>5.3538650048849841E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1097,21 +1097,21 @@
         <v>13</v>
       </c>
       <c r="C27" s="1">
-        <v>3.9812789509596703E-8</v>
+        <v>8.7741711467970095E-5</v>
       </c>
       <c r="D27">
-        <v>1.5978227385176E-3</v>
+        <v>4.4266149052394796</v>
       </c>
       <c r="E27">
         <v>16</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1.1298031416464144E-3</v>
+        <v>3.1300273744371108</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>1.276455138874108E-6</v>
+        <v>9.7970713647256726</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1122,21 +1122,21 @@
         <v>14</v>
       </c>
       <c r="C28" s="1">
-        <v>8.3211944001959605E-7</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2.0942393371114999E-4</v>
+        <v>3.0769298291488599E-6</v>
+      </c>
+      <c r="D28">
+        <v>6.9568389628898303E-2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1.4749668637112115E-4</v>
+        <v>4.9190104344874454E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>2.1755272490460878E-8</v>
+        <v>2.4196663654596365E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1147,21 +1147,21 @@
         <v>14</v>
       </c>
       <c r="C29" s="1">
-        <v>4.42395605659839E-6</v>
+        <v>3.8620654095211601E-5</v>
       </c>
       <c r="D29">
-        <v>9.8094224655483203E-2</v>
+        <v>0.267654011083095</v>
       </c>
       <c r="E29">
         <v>8</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>6.9359963239801509E-2</v>
+        <v>0.18923265732223124</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>4.8108045006266175E-3</v>
+        <v>3.5808998597232994E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1172,21 +1172,21 @@
         <v>15</v>
       </c>
       <c r="C30" s="1">
-        <v>2.30502906788387E-5</v>
+        <v>7.2637498612948504E-4</v>
       </c>
       <c r="D30">
-        <v>2.0206357450547299E-2</v>
+        <v>4.3089252860204397</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.4271753359513984E-2</v>
+        <v>3.0463566646928602</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>2.0368294395479872E-4</v>
+        <v>9.2802889285186083</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1197,21 +1197,21 @@
         <v>15</v>
       </c>
       <c r="C31" s="1">
-        <v>5.7916395235224595E-7</v>
+        <v>2.0656400579355199E-5</v>
       </c>
       <c r="D31">
-        <v>1.51022041188753E-3</v>
+        <v>2.4232439647499802</v>
       </c>
       <c r="E31">
         <v>7</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.0674775635738862E-3</v>
+        <v>1.7134776336631614</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>1.1395083487336401E-6</v>
+        <v>2.9360056010639073</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1222,21 +1222,21 @@
         <v>16</v>
       </c>
       <c r="C32" s="1">
-        <v>4.4799321585742198E-8</v>
+        <v>1.7576374261807302E-5</v>
       </c>
       <c r="D32">
-        <v>1.3995591311981999E-2</v>
+        <v>0.64541887411655796</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>9.8963458455139149E-3</v>
+        <v>0.45636763422017562</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>9.7937661094020517E-5</v>
+        <v>0.20827141756372</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1246,22 +1246,22 @@
       <c r="B33">
         <v>16</v>
       </c>
-      <c r="C33" s="1">
-        <v>2.4026576284086299E-8</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.9111304345642501E-4</v>
+      <c r="C33">
+        <v>2.5201593273322899E-3</v>
+      </c>
+      <c r="D33">
+        <v>2.3489641093585698</v>
       </c>
       <c r="E33">
         <v>9</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.3512033964621829E-4</v>
+        <v>1.6591864287412368</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>1.8257506186109389E-8</v>
+        <v>2.7528996053190991</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1272,21 +1272,21 @@
         <v>17</v>
       </c>
       <c r="C34" s="1">
-        <v>6.9239592903613801E-7</v>
+        <v>2.38234905054923E-4</v>
       </c>
       <c r="D34">
-        <v>0.29785495677287999</v>
+        <v>7.43727397790121</v>
       </c>
       <c r="E34">
         <v>8</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0.21061477014627272</v>
+        <v>5.2587784057993154</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>4.4358581403767292E-2</v>
+        <v>27.654750321301186</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1297,21 +1297,21 @@
         <v>17</v>
       </c>
       <c r="C35" s="1">
-        <v>6.0465561091405096E-7</v>
+        <v>3.2105324407893902E-6</v>
       </c>
       <c r="D35">
-        <v>7.8273401231854205E-3</v>
+        <v>3.1565198717885302E-2</v>
       </c>
       <c r="E35">
         <v>17</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>5.5343377236751982E-3</v>
+        <v>2.2317695873657509E-2</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>3.0628894039694374E-5</v>
+        <v>4.9807954910906943E-4</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1322,21 +1322,21 @@
         <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>7.5096647833561199E-6</v>
+        <v>8.3742014567178503E-5</v>
       </c>
       <c r="D36">
-        <v>5.3624584199042098E-2</v>
+        <v>1.51811504613181</v>
       </c>
       <c r="E36">
         <v>6</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>3.791299699055891E-2</v>
+        <v>1.0734102291947607</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>1.4373953408061289E-3</v>
+        <v>1.1522095201399485</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,21 +1347,21 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>1.2849750419263699E-7</v>
+        <v>1.04566236473147E-4</v>
       </c>
       <c r="D37">
-        <v>3.7684898325096501E-3</v>
+        <v>0.16019539346871101</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>2.66463385394355E-3</v>
+        <v>0.1132013095416794</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>7.1002735755820556E-6</v>
+        <v>1.2814536481951116E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1372,21 +1372,21 @@
         <v>19</v>
       </c>
       <c r="C38" s="1">
-        <v>8.7226034338527798E-5</v>
+        <v>8.3529491553235803E-4</v>
       </c>
       <c r="D38">
-        <v>0.47176548183063</v>
+        <v>46.483420622138702</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>0.33352689321180062</v>
+        <v>32.868151291961816</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>0.11124018849551587</v>
+        <v>1080.3153693512911</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1397,21 +1397,21 @@
         <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>5.7589886637288099E-8</v>
+        <v>8.7206972125386501E-5</v>
       </c>
       <c r="D39">
-        <v>6.7738888564008396E-3</v>
+        <v>0.29557615641044699</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>4.7898220231656517E-3</v>
+        <v>0.20894223991352609</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>2.2942395013602701E-5</v>
+        <v>4.3656859620081499E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1422,21 +1422,21 @@
         <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>2.5809012754507401E-5</v>
+        <v>6.0108160369054497E-5</v>
       </c>
       <c r="D40">
-        <v>2.8280345762141199E-2</v>
+        <v>0.54284407441525595</v>
       </c>
       <c r="E40">
         <v>7</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.9978974534775842E-2</v>
+        <v>0.38380622325816072</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>3.991594234612216E-4</v>
+        <v>0.14730721701169311</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1446,22 +1446,22 @@
       <c r="B41">
         <v>20</v>
       </c>
-      <c r="C41" s="1">
-        <v>8.2134446302006802E-6</v>
+      <c r="C41">
+        <v>8.2771057651598295E-3</v>
       </c>
       <c r="D41">
-        <v>0.203336307739959</v>
+        <v>16.612337092735199</v>
       </c>
       <c r="E41">
         <v>13</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>0.14377467428196478</v>
+        <v>11.740843412014732</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>2.0671156964885064E-2</v>
+        <v>137.84740402544972</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1472,21 +1472,21 @@
         <v>21</v>
       </c>
       <c r="C42" s="1">
-        <v>6.21087110630469E-8</v>
+        <v>1.7963578329727099E-5</v>
       </c>
       <c r="D42">
-        <v>2.4309413935270602E-3</v>
+        <v>0.27144466864012801</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1.7188912265392964E-3</v>
+        <v>0.19192766374431861</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>2.9545870486737669E-6</v>
+        <v>3.6836228110352226E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1496,22 +1496,22 @@
       <c r="B43">
         <v>21</v>
       </c>
-      <c r="C43" s="1">
-        <v>4.6318291424540803E-9</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5.8730930959427496E-4</v>
+      <c r="C43">
+        <v>1.64807493615626E-3</v>
+      </c>
+      <c r="D43">
+        <v>4.3110281543316598</v>
       </c>
       <c r="E43">
         <v>11</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>4.1528712027030535E-4</v>
+        <v>3.0471918768507833</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>1.7246339226240307E-7</v>
+        <v>9.2853783343453991</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1522,21 +1522,21 @@
         <v>22</v>
       </c>
       <c r="C44" s="1">
-        <v>1.2720306926894401E-5</v>
+        <v>8.4584988019287201E-4</v>
       </c>
       <c r="D44">
-        <v>0.46156073677718701</v>
+        <v>0.84871118016224001</v>
       </c>
       <c r="E44">
         <v>6</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>0.32636373228932125</v>
+        <v>0.59953132457540736</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>0.10651328575381575</v>
+        <v>0.35943780914714252</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1547,21 +1547,21 @@
         <v>22</v>
       </c>
       <c r="C45" s="1">
-        <v>3.0602944434576703E-5</v>
+        <v>1.4829621250100899E-5</v>
       </c>
       <c r="D45">
-        <v>8.1997174773618994E-2</v>
+        <v>2.24991390474338</v>
       </c>
       <c r="E45">
         <v>9</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>5.7959118771030542E-2</v>
+        <v>1.5909188930041995</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>3.3592594487144248E-3</v>
+        <v>2.5310229241177078</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1572,21 +1572,21 @@
         <v>23</v>
       </c>
       <c r="C46" s="1">
-        <v>2.7078130642621501E-5</v>
+        <v>7.4007397188324797E-6</v>
       </c>
       <c r="D46">
-        <v>0.408790928735356</v>
+        <v>2.0742709755836499E-2</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>0.28903969066651763</v>
+        <v>1.4662077615295362E-2</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>8.3543942780596195E-2</v>
+        <v>2.1497651999694535E-4</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1596,22 +1596,22 @@
       <c r="B47">
         <v>23</v>
       </c>
-      <c r="C47" s="1">
-        <v>4.7251125840830301E-4</v>
+      <c r="C47">
+        <v>3.1715812663151099E-3</v>
       </c>
       <c r="D47">
-        <v>0.22172347536888901</v>
+        <v>7.6304175203939604</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>0.15644805706658235</v>
+        <v>5.3932773253347142</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>2.447599455990861E-2</v>
+        <v>29.087440307969572</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1621,22 +1621,22 @@
       <c r="B48">
         <v>24</v>
       </c>
-      <c r="C48" s="1">
-        <v>4.17996180885893E-5</v>
+      <c r="C48">
+        <v>3.9242602854301298E-3</v>
       </c>
       <c r="D48">
-        <v>1.7364111137339901E-2</v>
+        <v>22.1338755465475</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.2248723941088448E-2</v>
+        <v>15.648238621843868</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>1.5003123818499334E-4</v>
+        <v>244.8673719661661</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1647,21 +1647,21 @@
         <v>24</v>
       </c>
       <c r="C49" s="1">
-        <v>7.7083745964046102E-7</v>
+        <v>2.9245784162412699E-5</v>
       </c>
       <c r="D49">
-        <v>4.7083567515073801E-3</v>
+        <v>1.0189660103110301</v>
       </c>
       <c r="E49">
         <v>16</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>3.3287659228414287E-3</v>
+        <v>0.72049709579722843</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>1.1080682569070349E-5</v>
+        <v>0.51911606505224062</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1671,22 +1671,22 @@
       <c r="B50">
         <v>25</v>
       </c>
-      <c r="C50" s="1">
-        <v>2.1886194190301401E-7</v>
+      <c r="C50">
+        <v>1.0585539035900999E-3</v>
       </c>
       <c r="D50">
-        <v>2.3355634940571599E-3</v>
+        <v>0.55217938848829795</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.6513380257763013E-3</v>
+        <v>0.3897012793880365</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>2.7269172753747725E-6</v>
+        <v>0.15186708715667246</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1697,21 +1697,21 @@
         <v>25</v>
       </c>
       <c r="C51" s="1">
-        <v>1.26546740375488E-6</v>
+        <v>1.40620602451235E-4</v>
       </c>
       <c r="D51">
-        <v>2.7596160271173099E-2</v>
+        <v>0.36425799781647999</v>
       </c>
       <c r="E51">
         <v>12</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.9512537241874725E-2</v>
+        <v>0.25746986657589982</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>3.8073910961554814E-4</v>
+        <v>6.6290732194611665E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1722,21 +1722,21 @@
         <v>26</v>
       </c>
       <c r="C52" s="1">
-        <v>7.7780498486390496E-7</v>
+        <v>2.9660120799235301E-4</v>
       </c>
       <c r="D52">
-        <v>6.1911635785349903E-2</v>
+        <v>3.83625890443192</v>
       </c>
       <c r="E52">
         <v>8</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>4.3777587506993398E-2</v>
+        <v>2.7124349569856068</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>1.9164771679324644E-3</v>
+        <v>7.3573033958775094</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -1746,22 +1746,22 @@
       <c r="B53">
         <v>26</v>
       </c>
-      <c r="C53">
-        <v>1.51639652676749E-3</v>
+      <c r="C53" s="1">
+        <v>7.4572717494447699E-6</v>
       </c>
       <c r="D53">
-        <v>1.8107184561923699</v>
+        <v>7.1907552458583199E-2</v>
       </c>
       <c r="E53">
         <v>12</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.279299044926216</v>
+        <v>5.0841044874568392E-2</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>1.6366060463491288</v>
+        <v>2.5848118439378773E-3</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1772,21 +1772,21 @@
         <v>27</v>
       </c>
       <c r="C54" s="1">
-        <v>5.5832601901783997E-6</v>
+        <v>2.6750041763534601E-4</v>
       </c>
       <c r="D54">
-        <v>2.7956359954600801E-2</v>
+        <v>6.9586942067105602</v>
       </c>
       <c r="E54">
         <v>8</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.9764183740048666E-2</v>
+        <v>4.9203507104093003</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>3.9062295891040402E-4</v>
+        <v>24.209851113425302</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -1797,21 +1797,21 @@
         <v>27</v>
       </c>
       <c r="C55" s="1">
-        <v>5.7452954592918097E-5</v>
+        <v>5.1871440041395501E-4</v>
       </c>
       <c r="D55">
-        <v>5.4175094459083001E-2</v>
+        <v>1.0239577023800099</v>
       </c>
       <c r="E55">
         <v>12</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>3.8266951289647494E-2</v>
+        <v>0.72368064853106984</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>1.464359561004254E-3</v>
+        <v>0.52371368105834981</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -1822,21 +1822,21 @@
         <v>28</v>
       </c>
       <c r="C56" s="1">
-        <v>4.1546593365637802E-7</v>
+        <v>8.04505796168086E-5</v>
       </c>
       <c r="D56">
-        <v>1.4061499727404199E-2</v>
+        <v>1.00850480759197</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>9.9426880321212587E-3</v>
+        <v>0.71306370115711892</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>9.8857045304087324E-5</v>
+        <v>0.50845984190788907</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -1847,21 +1847,21 @@
         <v>28</v>
       </c>
       <c r="C57" s="1">
-        <v>2.0649452267207299E-5</v>
+        <v>1.3851763162619999E-4</v>
       </c>
       <c r="D57">
-        <v>1.27677672081745E-2</v>
+        <v>0.48743096692680798</v>
       </c>
       <c r="E57">
         <v>16</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>9.0135734057854924E-3</v>
+        <v>0.34456779531762488</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>8.1244505541483482E-5</v>
+        <v>0.11872696557004865</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -1871,22 +1871,22 @@
       <c r="B58">
         <v>29</v>
       </c>
-      <c r="C58" s="1">
-        <v>1.4468806853074001E-5</v>
+      <c r="C58">
+        <v>2.2555322117796001E-2</v>
       </c>
       <c r="D58">
-        <v>8.5944639610943299E-2</v>
+        <v>6.1189015348672902</v>
       </c>
       <c r="E58">
         <v>4</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>6.0761806484090485E-2</v>
+        <v>4.3107677474960946</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>3.6919971272100604E-3</v>
+        <v>18.582718572852553</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -1896,22 +1896,22 @@
       <c r="B59">
         <v>29</v>
       </c>
-      <c r="C59" s="1">
-        <v>2.0179413695586799E-8</v>
-      </c>
-      <c r="D59" s="1">
-        <v>5.4655382257351405E-4</v>
+      <c r="C59">
+        <v>2.67454446782267E-3</v>
+      </c>
+      <c r="D59">
+        <v>48.213823733336703</v>
       </c>
       <c r="E59">
         <v>16</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>3.864576452248964E-4</v>
+        <v>34.090430520245505</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>1.493495115527719E-7</v>
+        <v>1162.1574530556863</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -1922,21 +1922,21 @@
         <v>30</v>
       </c>
       <c r="C60" s="1">
-        <v>3.52564893546514E-6</v>
+        <v>1.26023148823151E-5</v>
       </c>
       <c r="D60">
-        <v>3.5311271999603301E-2</v>
+        <v>8.3848707903598496E-2</v>
       </c>
       <c r="E60">
         <v>7</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>2.4966346872971799E-2</v>
+        <v>5.9281078770052634E-2</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>6.2331847618154871E-4</v>
+        <v>3.5142463001411849E-3</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -1946,22 +1946,22 @@
       <c r="B61">
         <v>30</v>
       </c>
-      <c r="C61" s="1">
-        <v>4.3169779928575698E-7</v>
+      <c r="C61">
+        <v>6.08263887090743E-3</v>
       </c>
       <c r="D61">
-        <v>1.44860938030433E-2</v>
+        <v>3.8848055794179501</v>
       </c>
       <c r="E61">
         <v>11</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.0242909904595043E-2</v>
+        <v>2.7426712936046398</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>1.0491720331365123E-4</v>
+        <v>7.5222458247629485</v>
       </c>
     </row>
   </sheetData>

--- a/AGReal/AG.xlsx
+++ b/AGReal/AG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wando\Documents\GitHub\2018-01-atividades-wandolm\AGReal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993D489-24ED-4D04-AFB5-EAD257E2D27D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04346C-9071-42A9-8DF0-F1CD6CD49F56}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{392FB9C5-3298-47C4-92F5-533A51836AF1}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{392FB9C5-3298-47C4-92F5-533A51836AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Pior Individuo</t>
   </si>
   <si>
-    <t>Tempo</t>
-  </si>
-  <si>
     <t>Media melhor</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">Variancia </t>
+  </si>
+  <si>
+    <t>Tempo (ms)</t>
   </si>
 </sst>
 </file>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6A483-7160-4B3D-95D4-F2C05A814363}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -440,19 +440,19 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
